--- a/TableStructure.xlsx
+++ b/TableStructure.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c6582939a69022/Documents/Emtyaz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\pose922\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86720374-FE56-4D38-BB4A-58F5ACD53B09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ProductTable" sheetId="1" r:id="rId1"/>
@@ -3714,7 +3713,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-2000401]0"/>
   </numFmts>
@@ -4033,11 +4032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO77"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,6 +4045,9 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="41.42578125" customWidth="1"/>
     <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -6748,6 +6750,28 @@
         <v>44380</v>
       </c>
     </row>
+    <row r="56" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="343.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6755,7 +6779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D821244C-8667-4AD6-9E3B-572B8C2F83F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7332,7 +7356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5FE544-F042-46FF-BC26-12FF2B357BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13297,7 +13321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D6E1CB-47FC-4316-93C7-1F9ADCBEE121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26791,7 +26815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508E69E-A277-4DDD-9C7B-AB1BAE1770F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26992,11 +27016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B277B755-2459-48F2-8831-5D70FD066BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27478,7 +27502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450175D2-CE58-4EC7-B9B2-8A198688FECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
